--- a/level-3/hackerearth/phase-3-dynamic-programming-2/hackerearth-phase-3-dynamic-programming-2.xlsx
+++ b/level-3/hackerearth/phase-3-dynamic-programming-2/hackerearth-phase-3-dynamic-programming-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F143D74-B1FE-4D38-9086-50B87E8713A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83871451-F8E3-4C95-AE9E-8D098727383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - dynamic programming 2" sheetId="14" r:id="rId1"/>
+    <sheet name="dynamic-programming-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -570,12 +583,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -588,19 +601,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,42 +651,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1128,78 +1100,78 @@
     <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C105)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C105)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G105)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H105)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1224,11 +1196,11 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4" si="0">SUM(C4:G4)</f>
+        <f t="shared" ref="H4" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1244,12 +1216,12 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H36" si="1">SUM(C5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H36" si="2">SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1265,12 +1237,12 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1286,12 +1258,12 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1307,12 +1279,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12" t="s">
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1328,12 +1300,12 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1349,12 +1321,12 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12" t="s">
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1370,12 +1342,12 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1391,12 +1363,12 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1412,12 +1384,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12" t="s">
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1433,12 +1405,12 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12" t="s">
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1454,12 +1426,12 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1475,12 +1447,12 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12" t="s">
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1496,12 +1468,12 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12" t="s">
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1517,12 +1489,12 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12" t="s">
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1538,12 +1510,12 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12" t="s">
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1559,12 +1531,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12" t="s">
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1580,12 +1552,12 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12" t="s">
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1601,11 +1573,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1621,11 +1593,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="H23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1641,11 +1613,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="H24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1661,11 +1633,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="13" t="s">
+      <c r="H25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1681,11 +1653,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="H26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1701,11 +1673,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="H27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1721,11 +1693,11 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="H28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1741,11 +1713,11 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13" t="s">
+      <c r="H29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1761,11 +1733,11 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="13" t="s">
+      <c r="H30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1781,11 +1753,11 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="H31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1801,11 +1773,11 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="H32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1821,11 +1793,11 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="13" t="s">
+      <c r="H33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1841,11 +1813,11 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="13" t="s">
+      <c r="H34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1861,11 +1833,11 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="13" t="s">
+      <c r="H35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1881,11 +1853,11 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="13" t="s">
+      <c r="H36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1901,11 +1873,11 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="10">
-        <f t="shared" ref="H37:H57" si="2">SUM(C37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="13" t="s">
+      <c r="H37" s="7">
+        <f t="shared" ref="H37:H57" si="3">SUM(C37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1921,11 +1893,11 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
+      <c r="H38" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1941,11 +1913,11 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13" t="s">
+      <c r="H39" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1961,11 +1933,11 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="13" t="s">
+      <c r="H40" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1981,11 +1953,11 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="13" t="s">
+      <c r="H41" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2001,11 +1973,11 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13" t="s">
+      <c r="H42" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2021,11 +1993,11 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="13" t="s">
+      <c r="H43" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2041,11 +2013,11 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="13" t="s">
+      <c r="H44" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2061,11 +2033,11 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="13" t="s">
+      <c r="H45" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2081,11 +2053,11 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="13" t="s">
+      <c r="H46" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2101,11 +2073,11 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="13" t="s">
+      <c r="H47" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2121,11 +2093,11 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="13" t="s">
+      <c r="H48" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2141,11 +2113,11 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="H49" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2161,11 +2133,11 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13" t="s">
+      <c r="H50" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2181,11 +2153,11 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="13" t="s">
+      <c r="H51" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2201,11 +2173,11 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="13" t="s">
+      <c r="H52" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2221,11 +2193,11 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="13" t="s">
+      <c r="H53" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2241,11 +2213,11 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="13" t="s">
+      <c r="H54" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2261,11 +2233,11 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="13" t="s">
+      <c r="H55" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2281,11 +2253,11 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="13" t="s">
+      <c r="H56" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2301,11 +2273,11 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="13" t="s">
+      <c r="H57" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2316,11 +2288,11 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="10">
-        <f t="shared" ref="H58:H68" si="3">SUM(C58:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="13" t="s">
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:H68" si="4">SUM(C58:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2331,11 +2303,11 @@
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="H59" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2346,11 +2318,11 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H60" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="13" t="s">
+      <c r="H60" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2361,11 +2333,11 @@
       <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="13" t="s">
+      <c r="H61" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2376,11 +2348,11 @@
       <c r="B62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H62" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="13" t="s">
+      <c r="H62" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2391,11 +2363,11 @@
       <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H63" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="13" t="s">
+      <c r="H63" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2406,11 +2378,11 @@
       <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H64" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="13" t="s">
+      <c r="H64" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2421,11 +2393,11 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H65" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="13" t="s">
+      <c r="H65" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2436,11 +2408,11 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="13" t="s">
+      <c r="H66" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2451,11 +2423,11 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H67" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="13" t="s">
+      <c r="H67" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2466,11 +2438,11 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H68" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="13" t="s">
+      <c r="H68" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2481,11 +2453,11 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="10">
-        <f t="shared" ref="H69:H100" si="4">SUM(C69:G69)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="13" t="s">
+      <c r="H69" s="7">
+        <f t="shared" ref="H69:H100" si="5">SUM(C69:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2496,11 +2468,11 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="13" t="s">
+      <c r="H70" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2511,11 +2483,11 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="13" t="s">
+      <c r="H71" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2526,11 +2498,11 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="13" t="s">
+      <c r="H72" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2541,11 +2513,11 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="13" t="s">
+      <c r="H73" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2556,11 +2528,11 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H74" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="13" t="s">
+      <c r="H74" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2571,11 +2543,11 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="13" t="s">
+      <c r="H75" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2586,11 +2558,11 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="s">
+      <c r="H76" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2601,11 +2573,11 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="13" t="s">
+      <c r="H77" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2616,11 +2588,11 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="s">
+      <c r="H78" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2631,11 +2603,11 @@
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="13" t="s">
+      <c r="H79" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2646,11 +2618,11 @@
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="13" t="s">
+      <c r="H80" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2661,11 +2633,11 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H81" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="13" t="s">
+      <c r="H81" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2676,11 +2648,11 @@
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H82" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="13" t="s">
+      <c r="H82" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2691,11 +2663,11 @@
       <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H83" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="13" t="s">
+      <c r="H83" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2706,11 +2678,11 @@
       <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H84" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="13" t="s">
+      <c r="H84" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2721,11 +2693,11 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="13" t="s">
+      <c r="H85" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2736,11 +2708,11 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="13" t="s">
+      <c r="H86" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2751,11 +2723,11 @@
       <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H87" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="13" t="s">
+      <c r="H87" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2766,11 +2738,11 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13" t="s">
+      <c r="H88" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2781,11 +2753,11 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13" t="s">
+      <c r="H89" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2796,11 +2768,11 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="13" t="s">
+      <c r="H90" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2811,11 +2783,11 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="13" t="s">
+      <c r="H91" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2826,11 +2798,11 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H92" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="13" t="s">
+      <c r="H92" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2841,11 +2813,11 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="13" t="s">
+      <c r="H93" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2856,11 +2828,11 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H94" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="13" t="s">
+      <c r="H94" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2871,11 +2843,11 @@
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H95" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="s">
+      <c r="H95" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2886,11 +2858,11 @@
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H96" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="13" t="s">
+      <c r="H96" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2901,11 +2873,11 @@
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H97" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="13" t="s">
+      <c r="H97" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2916,11 +2888,11 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H98" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="13" t="s">
+      <c r="H98" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2931,11 +2903,11 @@
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H99" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="13" t="s">
+      <c r="H99" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2946,11 +2918,11 @@
       <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H100" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="13" t="s">
+      <c r="H100" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2961,11 +2933,11 @@
       <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="10">
-        <f t="shared" ref="H101:H118" si="5">SUM(C101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="13" t="s">
+      <c r="H101" s="7">
+        <f t="shared" ref="H101:H118" si="6">SUM(C101:G101)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2976,11 +2948,11 @@
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H102" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="13" t="s">
+      <c r="H102" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2991,11 +2963,11 @@
       <c r="B103" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H103" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="13" t="s">
+      <c r="H103" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3006,11 +2978,11 @@
       <c r="B104" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H104" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="13" t="s">
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3022,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="H105" s="7">
-        <f t="shared" ref="H105" si="6">SUM(C105:G105)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="13" t="s">
+        <f t="shared" ref="H105" si="7">SUM(C105:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3036,11 +3008,11 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H106" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="13" t="s">
+      <c r="H106" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3051,11 +3023,11 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H107" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="13" t="s">
+      <c r="H107" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3066,11 +3038,11 @@
       <c r="B108" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H108" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="13" t="s">
+      <c r="H108" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3081,11 +3053,11 @@
       <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H109" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="13" t="s">
+      <c r="H109" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3096,11 +3068,11 @@
       <c r="B110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H110" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="13" t="s">
+      <c r="H110" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3111,11 +3083,11 @@
       <c r="B111" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H111" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="13" t="s">
+      <c r="H111" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3126,11 +3098,11 @@
       <c r="B112" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H112" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="13" t="s">
+      <c r="H112" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3141,11 +3113,11 @@
       <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H113" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="13" t="s">
+      <c r="H113" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3156,11 +3128,11 @@
       <c r="B114" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H114" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="13" t="s">
+      <c r="H114" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3171,11 +3143,11 @@
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H115" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="13" t="s">
+      <c r="H115" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3186,11 +3158,11 @@
       <c r="B116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H116" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="13" t="s">
+      <c r="H116" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3201,11 +3173,11 @@
       <c r="B117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="13" t="s">
+      <c r="H117" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3216,11 +3188,11 @@
       <c r="B118" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H118" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="13" t="s">
+      <c r="H118" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3265,12 +3237,12 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="18" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerearth/phase-3-dynamic-programming-2/hackerearth-phase-3-dynamic-programming-2.xlsx
+++ b/level-3/hackerearth/phase-3-dynamic-programming-2/hackerearth-phase-3-dynamic-programming-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83871451-F8E3-4C95-AE9E-8D098727383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1BF35-217F-46A5-B38C-99EC79300F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,27 +1151,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C105)</f>
+        <f>AVERAGE(C4:C155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H155)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1196,7 +1196,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1217,7 +1217,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H36" si="2">SUM(C5:G5)</f>
+        <f t="shared" ref="H5:H36" si="1">SUM(C5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
@@ -1238,7 +1238,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1259,7 +1259,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1280,7 +1280,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1301,7 +1301,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1322,7 +1322,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1364,7 +1364,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1385,7 +1385,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1406,7 +1406,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1427,7 +1427,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1469,7 +1469,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1490,7 +1490,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1511,7 +1511,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1532,7 +1532,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1553,7 +1553,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1574,7 +1574,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -1594,7 +1594,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -1614,7 +1614,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
@@ -1634,7 +1634,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
@@ -1654,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
@@ -1674,7 +1674,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -1694,7 +1694,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -1714,7 +1714,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
@@ -1734,7 +1734,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
@@ -1754,7 +1754,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
@@ -1774,7 +1774,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="11" t="s">
@@ -1794,7 +1794,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="11" t="s">
@@ -1814,7 +1814,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="11" t="s">
@@ -1834,7 +1834,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="11" t="s">
@@ -1854,7 +1854,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
@@ -1874,7 +1874,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" ref="H37:H57" si="3">SUM(C37:G37)</f>
+        <f t="shared" ref="H37:H57" si="2">SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -1894,7 +1894,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="11" t="s">
@@ -1914,7 +1914,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="11" t="s">
@@ -1934,7 +1934,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="11" t="s">
@@ -1954,7 +1954,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="11" t="s">
@@ -1974,7 +1974,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="11" t="s">
@@ -1994,7 +1994,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="11" t="s">
@@ -2014,7 +2014,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="11" t="s">
@@ -2034,7 +2034,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="11" t="s">
@@ -2074,7 +2074,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="11" t="s">
@@ -2094,7 +2094,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -2114,7 +2114,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -2134,7 +2134,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -2154,7 +2154,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -2174,7 +2174,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="11" t="s">
@@ -2194,7 +2194,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="11" t="s">
@@ -2214,7 +2214,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="11" t="s">
@@ -2234,7 +2234,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="11" t="s">
@@ -2254,7 +2254,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="11" t="s">
@@ -2274,7 +2274,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" ref="H58:H68" si="4">SUM(C58:G58)</f>
+        <f t="shared" ref="H58:H68" si="3">SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="11" t="s">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" s="11" t="s">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60" s="11" t="s">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61" s="11" t="s">
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J63" s="11" t="s">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="11" t="s">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65" s="11" t="s">
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J66" s="11" t="s">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67" s="11" t="s">
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68" s="11" t="s">
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" ref="H69:H100" si="5">SUM(C69:G69)</f>
+        <f t="shared" ref="H69:H100" si="4">SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="11" t="s">
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J70" s="11" t="s">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J71" s="11" t="s">
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J72" s="11" t="s">
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J73" s="11" t="s">
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" ref="H101:H118" si="6">SUM(C101:G101)</f>
+        <f t="shared" ref="H101:H118" si="5">SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -2964,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -2979,7 +2979,7 @@
         <v>30</v>
       </c>
       <c r="H104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="7">
-        <f t="shared" ref="H105" si="7">SUM(C105:G105)</f>
+        <f t="shared" ref="H105" si="6">SUM(C105:G105)</f>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
